--- a/태양광/To휘문박사님.xlsx
+++ b/태양광/To휘문박사님.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\태양광\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53EC55C-5363-4B4A-9B42-05AB74D4847C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8013C-51D1-4B2B-8EE7-1ED7FB58E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{B25731AF-BFCF-4C4F-9EF9-EFA70691F623}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="200">
   <si>
     <t>CTP_KOR_NM</t>
   </si>
@@ -487,22 +487,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>할인율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>설비수명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>년</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>원/kWh/년</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>공시지가</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -531,10 +519,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>효율감소율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>매년 효율0.8%씩 감소</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -551,15 +535,236 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>이론적 잠재량: 아무제약 없음</t>
+    <t>신재생에너지백서 (2020)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>기술적 잠재량: 지리적제약, 기술적 제약이 반영</t>
+    <t>김진영 외 (2019) 기초지방자치단체별 보급 가능한 재생에너지 시장잠재량을 이용한 에너지 자립률 평가</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>시장 잠재량: 기술적 잠재량에 규제제약, 경제제약 반영</t>
+    <t>(수식) 에경연 LCOE 보고서 27페이지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(12)</t>
+  </si>
+  <si>
+    <t>(1-d)^(2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(3)</t>
+  </si>
+  <si>
+    <t>(1-d)^(4)</t>
+  </si>
+  <si>
+    <t>(1-d)^(5)</t>
+  </si>
+  <si>
+    <t>(1-d)^(6)</t>
+  </si>
+  <si>
+    <t>(1-d)^(7)</t>
+  </si>
+  <si>
+    <t>(1-d)^(8)</t>
+  </si>
+  <si>
+    <t>(1-d)^(9)</t>
+  </si>
+  <si>
+    <t>(1-d)^(10)</t>
+  </si>
+  <si>
+    <t>(1-d)^(11)</t>
+  </si>
+  <si>
+    <t>(1-d)^(13)</t>
+  </si>
+  <si>
+    <t>(1-d)^(14)</t>
+  </si>
+  <si>
+    <t>(1-d)^(15)</t>
+  </si>
+  <si>
+    <t>(1-d)^(16)</t>
+  </si>
+  <si>
+    <t>(1-d)^(17)</t>
+  </si>
+  <si>
+    <t>(1-d)^(18)</t>
+  </si>
+  <si>
+    <t>(1-d)^(19)</t>
+  </si>
+  <si>
+    <t>(1-d)^(20)</t>
+  </si>
+  <si>
+    <t>원/kW/년</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/(1+r)^(1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/(1+r)^(2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/(1+r)^(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/(1+r)^(4)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(5)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(6)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(7)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(8)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(9)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(10)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(11)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(12)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(13)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(14)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(15)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(16)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(17)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(18)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(19)</t>
+  </si>
+  <si>
+    <t>1/(1+r)^(20)</t>
+  </si>
+  <si>
+    <t>(1-d)^(1)/(1+r)^(1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(2)/(1+r)^(2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(3)/(1+r)^(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(4)/(1+r)^(4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(5)/(1+r)^(5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(6)/(1+r)^(6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(7)/(1+r)^(7)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(8)/(1+r)^(8)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(9)/(1+r)^(9)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(10)/(1+r)^(10)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(11)/(1+r)^(11)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(12)/(1+r)^(12)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(13)/(1+r)^(13)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(14)/(1+r)^(14)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(15)/(1+r)^(15)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(16)/(1+r)^(16)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(17)/(1+r)^(17)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(18)/(1+r)^(18)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(19)/(1+r)^(19)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-d)^(20)/(1+r)^(20)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율감소율 (d)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>설비수명 (n)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율 (r)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -567,12 +772,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00000000000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.00000"/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -759,7 +966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +1155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1246,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,6 +1522,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1895,16 +2123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>604100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>147035</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>505675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1927,8 +2155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1466850"/>
-          <a:ext cx="6090500" cy="7062185"/>
+          <a:off x="1273175" y="942975"/>
+          <a:ext cx="6090500" cy="7065360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1939,16 +2167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>289779</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200454</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>632679</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1971,8 +2199,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9944100" y="1524000"/>
-          <a:ext cx="6119079" cy="3077004"/>
+          <a:off x="7546975" y="1019175"/>
+          <a:ext cx="6115904" cy="3080179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>521193</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEEE6C1-B6C6-FF34-D6E5-76150F50C372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8642350" y="5181600"/>
+          <a:ext cx="3537443" cy="1371791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>445508</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>191131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578A66A7-EB64-C951-F448-2726FF1FBB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12426950" y="4464050"/>
+          <a:ext cx="7220958" cy="4528181"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2301,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B93F1-4ED4-4F47-B31E-E2528D2687A5}">
-  <dimension ref="A2:T41"/>
+  <dimension ref="A2:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2317,13 +2633,13 @@
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2341,7 +2657,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="M3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -2367,13 +2683,13 @@
         <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>115</v>
@@ -2382,7 +2698,7 @@
         <v>116</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>28</v>
@@ -2409,33 +2725,33 @@
         <v>45</v>
       </c>
       <c r="J5">
-        <f>E5*B14*B15*B16</f>
-        <v>8.2475399999999996E-6</v>
+        <f>E5*B14*B15</f>
+        <v>8247.5399999999991</v>
       </c>
       <c r="K5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L5">
         <f>J5*B24*B17</f>
-        <v>5.4983599999999995E-7</v>
+        <v>549.8359999999999</v>
       </c>
       <c r="M5" s="5">
-        <v>330000</v>
+        <v>22500</v>
       </c>
       <c r="N5" s="14">
-        <f>((B26+PV(B31,B32,B27+($B$15*M5*B33)*-1))*(B15/B25))/PV(-1*B34,B32,J5*B24*B17*-1/B16)</f>
-        <v>181.87628458094795</v>
+        <f>((B26+PV(B31,B32,B27+($B$15*M5*B33)*-1))*(B15/B25))/PV(-1*B34,B32,J5*B24*B17*-1)</f>
+        <v>69.808460394122903</v>
       </c>
       <c r="O5" s="16">
         <f>B28+B30</f>
         <v>186.46486004648341</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <f>L5</f>
-        <v>5.4983599999999995E-7</v>
+        <v>549.8359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -2448,40 +2764,32 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <f>E5*B14*B15*B16</f>
-        <v>8.2475399999999996E-6</v>
+        <f>E5*B14*B15</f>
+        <v>8247.5399999999991</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L6">
         <f>J5*C24*B17</f>
-        <v>4.1237700000000001E-7</v>
+        <v>412.37699999999995</v>
       </c>
       <c r="M6" s="5">
-        <v>330000</v>
-      </c>
-      <c r="N6" s="14">
-        <f>((C26+PV(C31,C32,C27+($B$15*M6*C33)*-1))*(B15/C25))/PV(-1*C34,C32,J6*C24*B17*-1/B16)</f>
-        <v>198.50091554693074</v>
-      </c>
+        <v>22500</v>
+      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="16">
         <f>C28+C30</f>
         <v>186.46486004648341</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
@@ -2495,9 +2803,6 @@
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -2512,9 +2817,6 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2597,7 +2899,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B25" s="14">
         <v>14.9</v>
@@ -2606,10 +2908,10 @@
         <v>19.8</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2637,7 +2939,7 @@
         <v>25798</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2691,7 +2993,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="B31">
         <v>4.4999999999999998E-2</v>
@@ -2705,7 +3007,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B32" s="15">
         <v>20</v>
@@ -2714,12 +3016,12 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -2731,12 +3033,12 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="B34" s="13">
         <v>8.0000000000000002E-3</v>
@@ -2748,18 +3050,701 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="18"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="14"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="13">
+        <f>(B26+($B$27+M5*$B$33*$B$25)*C64)*($B$15/$B$25)</f>
+        <v>1241998.7601730064</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37">
+        <f>B37/B38</f>
+        <v>186.56082347477081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="13">
+        <f>L5*$J$64</f>
+        <v>6657.3396120379248</v>
+      </c>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="42" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="18"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="22">
+        <f>1/(1+$B$31)^(A44)</f>
+        <v>0.95693779904306231</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="23">
+        <f>(1-$B$34)^(E44)</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="23">
+        <f>C44*G44</f>
+        <v>0.94928229665071784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="22">
+        <f>1/(1+$B$31)^(A45)</f>
+        <v>0.91572995123738021</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="23">
+        <f>(1-$B$34)^(E45)</f>
+        <v>0.98406399999999994</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="23">
+        <f>C45*G45</f>
+        <v>0.90113687873446124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="22">
+        <f>1/(1+$B$31)^(A46)</f>
+        <v>0.87629660405490928</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="23">
+        <f>(1-$B$34)^(E46)</f>
+        <v>0.97619148799999989</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="23">
+        <f>C46*G46</f>
+        <v>0.85543328584170863</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="22">
+        <f t="shared" ref="C47:C63" si="0">1/(1+$B$31)^(A47)</f>
+        <v>0.83856134359321488</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="23">
+        <f>(1-$B$34)^(E47)</f>
+        <v>0.96838195609599986</v>
+      </c>
+      <c r="I47" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="23">
+        <f>C47*G47</f>
+        <v>0.81204767421528723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="22">
+        <f t="shared" si="0"/>
+        <v>0.80245104650068411</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="23">
+        <f>(1-$B$34)^(E48)</f>
+        <v>0.96063490044723188</v>
+      </c>
+      <c r="I48" t="s">
+        <v>181</v>
+      </c>
+      <c r="J48" s="23">
+        <f>C48*G48</f>
+        <v>0.77086248116896172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76789573827816682</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="23">
+        <f>(1-$B$34)^(E49)</f>
+        <v>0.95294982124365391</v>
+      </c>
+      <c r="I49" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="23">
+        <f>C49*G49</f>
+        <v>0.73176610652594276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="22">
+        <f t="shared" si="0"/>
+        <v>0.73482845768245619</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="23">
+        <f>(1-$B$34)^(E50)</f>
+        <v>0.9453262226737047</v>
+      </c>
+      <c r="I50" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="23">
+        <f>C50*G50</f>
+        <v>0.69465261021410052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="22">
+        <f t="shared" si="0"/>
+        <v>0.70318512696885782</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="23">
+        <f>(1-$B$34)^(E51)</f>
+        <v>0.93776361289231502</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" s="23">
+        <f>C51*G51</f>
+        <v>0.65942142519845737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="22">
+        <f t="shared" si="0"/>
+        <v>0.67290442772139514</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="23">
+        <f>(1-$B$34)^(E52)</f>
+        <v>0.93026150398917651</v>
+      </c>
+      <c r="I52" t="s">
+        <v>185</v>
+      </c>
+      <c r="J52" s="23">
+        <f>C52*G52</f>
+        <v>0.62597708497308113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="22">
+        <f t="shared" si="0"/>
+        <v>0.64392768203004325</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="23">
+        <f>(1-$B$34)^(E53)</f>
+        <v>0.92281941195726302</v>
+      </c>
+      <c r="I53" t="s">
+        <v>186</v>
+      </c>
+      <c r="J53" s="23">
+        <f>C53*G53</f>
+        <v>0.59422896487396792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="22">
+        <f t="shared" si="0"/>
+        <v>0.61619873878473042</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="23">
+        <f>(1-$B$34)^(E54)</f>
+        <v>0.9154368566616049</v>
+      </c>
+      <c r="I54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54" s="23">
+        <f>C54*G54</f>
+        <v>0.56409103651193893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="22">
+        <f t="shared" si="0"/>
+        <v>0.58966386486577083</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="23">
+        <f>(1-$B$34)^(E55)</f>
+        <v>0.90811336180831204</v>
+      </c>
+      <c r="I55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="23">
+        <f>C55*G55</f>
+        <v>0.53548163466013732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="22">
+        <f t="shared" si="0"/>
+        <v>0.56427164101987637</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="23">
+        <f>(1-$B$34)^(E56)</f>
+        <v>0.90084845491384558</v>
+      </c>
+      <c r="I56" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="23">
+        <f>C56*G56</f>
+        <v>0.50832323596445572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="22">
+        <f t="shared" si="0"/>
+        <v>0.53997286221997753</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="23">
+        <f>(1-$B$34)^(E57)</f>
+        <v>0.89364166727453465</v>
+      </c>
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="23">
+        <f>C57*G57</f>
+        <v>0.48254224887726332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="22">
+        <f t="shared" si="0"/>
+        <v>0.51672044231576797</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="23">
+        <f>(1-$B$34)^(E58)</f>
+        <v>0.88649253393633842</v>
+      </c>
+      <c r="I58" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" s="23">
+        <f>C58*G58</f>
+        <v>0.45806881424521073</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="22">
+        <f t="shared" si="0"/>
+        <v>0.49446932279020878</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="23">
+        <f>(1-$B$34)^(E59)</f>
+        <v>0.87940059366484769</v>
+      </c>
+      <c r="I59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59" s="23">
+        <f>C59*G59</f>
+        <v>0.43483661601076479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="22">
+        <f t="shared" si="0"/>
+        <v>0.47317638544517582</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="23">
+        <f>(1-$B$34)^(E60)</f>
+        <v>0.87236538891552895</v>
+      </c>
+      <c r="I60" t="s">
+        <v>193</v>
+      </c>
+      <c r="J60" s="23">
+        <f>C60*G60</f>
+        <v>0.41278270151452501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="22">
+        <f t="shared" si="0"/>
+        <v>0.45280036884705832</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="23">
+        <f>(1-$B$34)^(E61)</f>
+        <v>0.86538646580420464</v>
+      </c>
+      <c r="I61" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" s="23">
+        <f>C61*G61</f>
+        <v>0.39184731091139607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="22">
+        <f t="shared" si="0"/>
+        <v>0.43330178837039074</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="23">
+        <f>(1-$B$34)^(E62)</f>
+        <v>0.85846337407777096</v>
+      </c>
+      <c r="I62" t="s">
+        <v>195</v>
+      </c>
+      <c r="J62" s="23">
+        <f>C62*G62</f>
+        <v>0.37197371523837791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="22">
+        <f t="shared" si="0"/>
+        <v>0.41464285968458453</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="23">
+        <f>(1-$B$34)^(E63)</f>
+        <v>0.85159566708514878</v>
+      </c>
+      <c r="I63" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="23">
+        <f>C63*G63</f>
+        <v>0.35310806269518752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C64" s="22">
+        <f>SUM(C44:C63)</f>
+        <v>13.007936451453711</v>
+      </c>
+      <c r="J64" s="23">
+        <f>SUM(J44:J63)</f>
+        <v>12.107864185025946</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="22"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="22"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="22"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="22"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="22"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="22"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="22"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="22"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="22"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="22"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="22"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="22"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="22"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="22"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="22"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="22"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="22"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="22"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="22"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2773,7 +3758,7 @@
   <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17711,7 +18696,7 @@
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17835,14 +18820,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED27DC6-1EA5-4934-A596-CC53AC96A6A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
